--- a/biology/Médecine/Jean-Marie_Bourre/Jean-Marie_Bourre.xlsx
+++ b/biology/Médecine/Jean-Marie_Bourre/Jean-Marie_Bourre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Marie Bourre, né le 25 juin 1945 à Paris[1], et originaire d'Égletons en Corrèze, est un médecin, chimiste français et chercheur en neurosciences.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Marie Bourre, né le 25 juin 1945 à Paris, et originaire d'Égletons en Corrèze, est un médecin, chimiste français et chercheur en neurosciences.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Marie Bourre est docteur en médecine[2], docteur es-sciences et ingénieur chimiste. Il est un ancien directeur des unités de recherche INSERM de neurotoxicologie et de neuro-pharmaco-nutrition. Il est membre de l'Académie nationale de médecine depuis le 29 avril 1997[1], membre de l'Académie d'agriculture de France[3].
-Dans un article du Figaro , il s’est opposé à l’obligation totale de menus végétariens à tous les repas dans les écoles[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Marie Bourre est docteur en médecine, docteur es-sciences et ingénieur chimiste. Il est un ancien directeur des unités de recherche INSERM de neurotoxicologie et de neuro-pharmaco-nutrition. Il est membre de l'Académie nationale de médecine depuis le 29 avril 1997, membre de l'Académie d'agriculture de France.
+Dans un article du Figaro , il s’est opposé à l’obligation totale de menus végétariens à tous les repas dans les écoles.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Marie Bourre est marié, 4 enfants et 13 petits-enfants. Baccalauréats Mathématiques puis Philosophie. Ingénieur Chimiste (ESCIL), Docteur ès Sciences, D.E.R. en Biologie Humaine, Docteur en Médecine. Membre de l'Académie de Médecine (1997), Membre de l'Académie d'Agriculture de France (2011). Membre du Comité d'Honneur de l'Académie Culinaire de France. Ancien Directeur de recherche INSERM. Ancien directeur des unités INSERM (n0 26) de Neuro-toxicologie, puis de Neuro-pharmaco-nutrition, à l'Hôpital Fernand Widal (groupe Lariboisière, Paris).
-Chevalier de l'Ordre National du Mérite, Chevalier dans l'Ordre du Mérite Agricole, Médaillé des services militaires volontaires. Titulaire de nombreuses distinctions, dont la Médaille d'Or de l'Académie d'Agriculture de France (2006),  lauréat du prix du meilleur article à caractère scientifique par le Syndicat national de la presse médicale et des professionnels de santé. Membre de multiples comités de lecture de revues scientifiques et médicales, nationale et internationales. Ancien président ou membre de comités scientifiques, de conseils scientifiques et de comités d'experts : d'associations, d'organisations interprofessionnelles, d'interprofessions et d'industries agro-alimentaires, ainsi que de distributeurs. Conseiller municipal, maire adjoint (d'Alain Devaquet) du XIème arrondissement de Paris, président délégué de la caisse des écoles (restauration scolaire). Officier de réserve, Chef de bataillon au 101ème RI [5] .
-Les résultats scientifiques et médicaux [6] ont donné lieu à 263 publications originales dans des revues internationales sélectives à comité de lecture (255 référencées dans MedLine) ; 159 publications dans des revues nationales, didactiques, des monographies et des chapitres de livres. Egalement, dans de nombreux pays : plus de 250 communications, et plus de 280 séminaires et conférences donnés sur invitation. L'essentiel des recherches personnelles a porté d'abord (à l'Hôpital de la Salpêtrière) sur la biochimie des lipides de la gaine de myéline du cerveau (sur des modèles animaux et chez l'Homme). Puis ensuite, à l'hôpital Fernand Widal, elles se sont principalement centrées sur les oméga-3 : leurs présences dans les cellules cérébrales, leurs rôles sur les structures du système nerveux, sur les organes neuro-sensoriels, et sur le fonctionnement du cerveau ; dont les résultats ont fait l'objet de 2 livres grand-public : « Les bonnes graisses » (en 1991) et " La vérité sur les oméga-3 " (en 2004).
+Chevalier de l'Ordre National du Mérite, Chevalier dans l'Ordre du Mérite Agricole, Médaillé des services militaires volontaires. Titulaire de nombreuses distinctions, dont la Médaille d'Or de l'Académie d'Agriculture de France (2006),  lauréat du prix du meilleur article à caractère scientifique par le Syndicat national de la presse médicale et des professionnels de santé. Membre de multiples comités de lecture de revues scientifiques et médicales, nationale et internationales. Ancien président ou membre de comités scientifiques, de conseils scientifiques et de comités d'experts : d'associations, d'organisations interprofessionnelles, d'interprofessions et d'industries agro-alimentaires, ainsi que de distributeurs. Conseiller municipal, maire adjoint (d'Alain Devaquet) du XIème arrondissement de Paris, président délégué de la caisse des écoles (restauration scolaire). Officier de réserve, Chef de bataillon au 101ème RI  .
+Les résultats scientifiques et médicaux  ont donné lieu à 263 publications originales dans des revues internationales sélectives à comité de lecture (255 référencées dans MedLine) ; 159 publications dans des revues nationales, didactiques, des monographies et des chapitres de livres. Egalement, dans de nombreux pays : plus de 250 communications, et plus de 280 séminaires et conférences donnés sur invitation. L'essentiel des recherches personnelles a porté d'abord (à l'Hôpital de la Salpêtrière) sur la biochimie des lipides de la gaine de myéline du cerveau (sur des modèles animaux et chez l'Homme). Puis ensuite, à l'hôpital Fernand Widal, elles se sont principalement centrées sur les oméga-3 : leurs présences dans les cellules cérébrales, leurs rôles sur les structures du système nerveux, sur les organes neuro-sensoriels, et sur le fonctionnement du cerveau ; dont les résultats ont fait l'objet de 2 livres grand-public : « Les bonnes graisses » (en 1991) et " La vérité sur les oméga-3 " (en 2004).
 </t>
         </is>
       </c>
@@ -576,12 +592,14 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La publication de son premier livre ("La diététique du cerveau" sous-titré : « de l'intelligence de du plaisir ") a donné lieu à une controverse, parfois violente, notamment de la part de psychiatres et de quelques neurologues, refusant que les nutriments, donc les aliments, puissent avoir une influence sur l’intelligence. Cette contestation s'est rapidement éteinte [7].
-Spécialiste des oméga-3, objets centraux de ses recherches, et socle de son deuxième livre ("Les bonnes graisses"), il s'est retrouvé en conflit avec des médecins psychiatres, et quelques industriels de la pharmacie et de la parapharmacie [8]. En effet, il dénonçait le peu d'efficacité des gélules prescrites (concentrées en oméga-3). En particulier du fait de leur formulation chimique, et de l'imprécision des motifs médicaux de leur recommandation (régulation de l’humeur positive) (cf. l'un de ses lires : « La vérité sur les oméga-3 »)[9] .
-Ardent défenseur de repas structurés [10]  et de l'omnivorisme, il a été récusé par des associations de végétariens, et surtout de végétaliens. Ainsi, dans un article dans le Figaro [11] il s'est opposé à l'obligation totale de menus végétariens (sans viande) à tous les repas dans les écoles, ce qui a donné lieu à polémique.
-Il lui a été reproché d'être expert ou conseiller (à titre occasionnel et transitoire) pour la distribution et l'industrie agro-alimentaire [12] .
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La publication de son premier livre ("La diététique du cerveau" sous-titré : « de l'intelligence de du plaisir ") a donné lieu à une controverse, parfois violente, notamment de la part de psychiatres et de quelques neurologues, refusant que les nutriments, donc les aliments, puissent avoir une influence sur l’intelligence. Cette contestation s'est rapidement éteinte .
+Spécialiste des oméga-3, objets centraux de ses recherches, et socle de son deuxième livre ("Les bonnes graisses"), il s'est retrouvé en conflit avec des médecins psychiatres, et quelques industriels de la pharmacie et de la parapharmacie . En effet, il dénonçait le peu d'efficacité des gélules prescrites (concentrées en oméga-3). En particulier du fait de leur formulation chimique, et de l'imprécision des motifs médicaux de leur recommandation (régulation de l’humeur positive) (cf. l'un de ses lires : « La vérité sur les oméga-3 ») .
+Ardent défenseur de repas structurés   et de l'omnivorisme, il a été récusé par des associations de végétariens, et surtout de végétaliens. Ainsi, dans un article dans le Figaro  il s'est opposé à l'obligation totale de menus végétariens (sans viande) à tous les repas dans les écoles, ce qui a donné lieu à polémique.
+Il lui a été reproché d'être expert ou conseiller (à titre occasionnel et transitoire) pour la distribution et l'industrie agro-alimentaire  .
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La Diététique du cerveau, 1990 ; collection Opus, 1993 et 1995, collection poches Odile Jacob, 2000.-Traduit : en allemand (« Intelligentz und Enährung », ed. Econ), en anglais (« Brainfood », ed. Little Brown), en espagnol (« De la Inteligencia y el placer. La dietetica del Cerebro » Biblioteca Mondatori), en italien (« La dietetica del Cervello », ed. Sperling et Kupfer), en portugais (« Comida inteligente » ed. Gravida).
 Les Bonnes Graisses, 1991 ; points Odile Jacob, 1996.-Traduit : en Espagnol (« Las buenos grasas », Biblioteca Mondatori).
